--- a/categories/it1/balance_topwords.xlsx
+++ b/categories/it1/balance_topwords.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <si>
     <t xml:space="preserve">gun</t>
   </si>
@@ -34,9 +34,6 @@
     <t xml:space="preserve">kill</t>
   </si>
   <si>
-    <t xml:space="preserve">lot</t>
-  </si>
-  <si>
     <t xml:space="preserve">shot</t>
   </si>
   <si>
@@ -46,34 +43,40 @@
     <t xml:space="preserve">lose</t>
   </si>
   <si>
+    <t xml:space="preserve">trophy</t>
+  </si>
+  <si>
     <t xml:space="preserve">team</t>
   </si>
   <si>
+    <t xml:space="preserve">friend</t>
+  </si>
+  <si>
     <t xml:space="preserve">match</t>
   </si>
   <si>
     <t xml:space="preserve">hard</t>
   </si>
   <si>
-    <t xml:space="preserve">win</t>
-  </si>
-  <si>
     <t xml:space="preserve">op</t>
   </si>
   <si>
+    <t xml:space="preserve">minecraft</t>
+  </si>
+  <si>
     <t xml:space="preserve">shoot</t>
   </si>
   <si>
     <t xml:space="preserve">damage</t>
   </si>
   <si>
-    <t xml:space="preserve">mode</t>
+    <t xml:space="preserve">armor</t>
   </si>
   <si>
     <t xml:space="preserve">rifle</t>
   </si>
   <si>
-    <t xml:space="preserve">high</t>
+    <t xml:space="preserve">stuff</t>
   </si>
   <si>
     <t xml:space="preserve">gameplay</t>
@@ -82,10 +85,316 @@
     <t xml:space="preserve">chest</t>
   </si>
   <si>
+    <t xml:space="preserve">new gun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">good gun</t>
+  </si>
+  <si>
     <t xml:space="preserve">long</t>
   </si>
   <si>
     <t xml:space="preserve">pet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">champion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shooter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sniper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">die</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">like minecraft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unfair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sandbox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">best gun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cool gun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gun like</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">make gun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">annoy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">powerful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nerf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">good weapon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">combat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minecraft gun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multiplayer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">efficiency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">join</t>
+  </si>
+  <si>
+    <t xml:space="preserve">like gun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hacker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overpowered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weapon like</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">play friend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nerfed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">siege</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new weapon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prototype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">high level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">judge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">laser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level 27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shot kill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">make weapon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bullet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gun make</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lucky chest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">head</t>
+  </si>
+  <si>
+    <t xml:space="preserve">death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adamant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">old weapon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overpower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ghost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rocket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">op weapon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">earn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lantern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kill people</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add gun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nanobots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">capture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gun best</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">combat level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cool weapon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dragon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">annoying</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anti champion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anti hero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ghost lantern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shotgun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weapon make</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hero rifle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mega</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nanobots rifle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">impossible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start play</t>
+  </si>
+  <si>
+    <t xml:space="preserve">champion rifle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">old gun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">upgrade weapon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">armour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leave match</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level 38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">area</t>
   </si>
 </sst>
 </file>
@@ -202,23 +511,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B126"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
+      <selection pane="topLeft" activeCell="A96" activeCellId="0" sqref="A96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.8744939271255"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -226,7 +536,7 @@
         <v>575.057736720554</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -234,7 +544,7 @@
         <v>267.898383371824</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -242,7 +552,7 @@
         <v>160.046189376443</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -250,39 +560,39 @@
         <v>115.011547344111</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>78.5219399538106</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>63.2794457274827</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>63.2794457274827</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>58.4295612009238</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>58.4295612009238</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51.5011547344111</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>51.5011547344111</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45.4965357967667</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -290,31 +600,31 @@
         <v>44.8036951501155</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>42.7251732101617</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43.1870669745958</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>42.2632794457275</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42.7251732101617</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>41.5704387990762</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42.2632794457275</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -322,23 +632,23 @@
         <v>36.2586605080831</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>32.5635103926097</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35.1039260969977</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>27.0207852193995</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>32.5635103926097</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -346,31 +656,31 @@
         <v>27.0207852193995</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>25.635103926097</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26.7898383371824</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>25.1732101616628</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>25.635103926097</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>24.0184757505774</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>25.1732101616628</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -378,20 +688,844 @@
         <v>24.0184757505774</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>22.4018475750577</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>24.0184757505774</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="0" t="n">
+        <v>23.094688221709</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>22.6327944572748</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>22.4018475750577</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="0" t="n">
         <v>20.3233256351039</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>19.6304849884527</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>19.3995381062356</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>18.013856812933</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>17.7829099307159</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>16.3972286374134</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>15.2424942263279</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>15.0115473441108</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>15.0115473441108</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>15.0115473441108</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>15.0115473441108</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>14.7806004618938</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>14.3187066974596</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>14.3187066974596</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>14.3187066974596</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>14.0877598152425</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>13.8568129330254</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>13.8568129330254</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>13.1639722863741</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>13.1639722863741</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>13.1639722863741</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>12.4711316397229</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>12.4711316397229</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>12.4711316397229</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>11.7782909930716</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>11.7782909930716</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>11.7782909930716</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>11.0854503464203</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>11.0854503464203</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>11.0854503464203</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>11.0854503464203</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>10.8545034642032</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>10.8545034642032</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>10.8545034642032</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>10.6235565819861</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <v>10.3926096997691</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" s="0" t="n">
+        <v>10.3926096997691</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="0" t="n">
+        <v>10.3926096997691</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" s="0" t="n">
+        <v>10.3926096997691</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" s="0" t="n">
+        <v>10.161662817552</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" s="0" t="n">
+        <v>10.161662817552</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" s="0" t="n">
+        <v>10.161662817552</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" s="0" t="n">
+        <v>10.161662817552</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" s="0" t="n">
+        <v>9.93071593533487</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" s="0" t="n">
+        <v>9.93071593533487</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" s="0" t="n">
+        <v>9.93071593533487</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" s="0" t="n">
+        <v>9.69976905311778</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" s="0" t="n">
+        <v>9.46882217090069</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74" s="0" t="n">
+        <v>9.46882217090069</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75" s="0" t="n">
+        <v>8.54503464203233</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76" s="0" t="n">
+        <v>8.54503464203233</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77" s="0" t="n">
+        <v>8.31408775981524</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" s="0" t="n">
+        <v>8.08314087759815</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" s="0" t="n">
+        <v>8.08314087759815</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" s="0" t="n">
+        <v>7.85219399538106</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" s="0" t="n">
+        <v>7.85219399538106</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82" s="0" t="n">
+        <v>7.85219399538106</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83" s="0" t="n">
+        <v>7.85219399538106</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84" s="0" t="n">
+        <v>7.62124711316397</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85" s="0" t="n">
+        <v>7.62124711316397</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86" s="0" t="n">
+        <v>7.39030023094688</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87" s="0" t="n">
+        <v>7.39030023094688</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88" s="0" t="n">
+        <v>7.39030023094688</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89" s="0" t="n">
+        <v>7.39030023094688</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90" s="0" t="n">
+        <v>7.15935334872979</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91" s="0" t="n">
+        <v>7.15935334872979</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92" s="0" t="n">
+        <v>7.15935334872979</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93" s="0" t="n">
+        <v>7.15935334872979</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94" s="0" t="n">
+        <v>7.15935334872979</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" s="0" t="n">
+        <v>7.15935334872979</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96" s="0" t="n">
+        <v>7.15935334872979</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97" s="0" t="n">
+        <v>6.9284064665127</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B98" s="0" t="n">
+        <v>6.9284064665127</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99" s="0" t="n">
+        <v>6.9284064665127</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100" s="0" t="n">
+        <v>6.9284064665127</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101" s="0" t="n">
+        <v>6.69745958429561</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B102" s="0" t="n">
+        <v>6.69745958429561</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B103" s="0" t="n">
+        <v>6.69745958429561</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B104" s="0" t="n">
+        <v>6.69745958429561</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B105" s="0" t="n">
+        <v>6.69745958429561</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B106" s="0" t="n">
+        <v>6.46651270207852</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B107" s="0" t="n">
+        <v>6.46651270207852</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B108" s="0" t="n">
+        <v>6.46651270207852</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B109" s="0" t="n">
+        <v>6.46651270207852</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B110" s="0" t="n">
+        <v>6.46651270207852</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B111" s="0" t="n">
+        <v>6.46651270207852</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B112" s="0" t="n">
+        <v>6.46651270207852</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B113" s="0" t="n">
+        <v>6.23556581986143</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B114" s="0" t="n">
+        <v>6.23556581986143</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B115" s="0" t="n">
+        <v>6.00461893764434</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B116" s="0" t="n">
+        <v>6.00461893764434</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B117" s="0" t="n">
+        <v>5.77367205542725</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B118" s="0" t="n">
+        <v>5.77367205542725</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B119" s="0" t="n">
+        <v>5.54272517321016</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B120" s="0" t="n">
+        <v>5.54272517321016</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B121" s="0" t="n">
+        <v>5.31177829099307</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B122" s="0" t="n">
+        <v>5.31177829099307</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B123" s="0" t="n">
+        <v>5.31177829099307</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B124" s="0" t="n">
+        <v>5.31177829099307</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B125" s="0" t="n">
+        <v>5.31177829099307</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B126" s="0" t="n">
+        <v>5.08083140877598</v>
       </c>
     </row>
   </sheetData>
